--- a/biology/Zoologie/Glyphesis_servulus/Glyphesis_servulus.xlsx
+++ b/biology/Zoologie/Glyphesis_servulus/Glyphesis_servulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glyphesis servulus est une espèce d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glyphesis servulus est une espèce d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle syntype mesure 0,8 mm[2].
-Le mâle décrit par Simon en 1884 mesure 1 mm et la femelle 1,2 mm[3].
-Le mâle mesure 1 mm et les femelles de 1,1 à 1,3 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle syntype mesure 0,8 mm.
+Le mâle décrit par Simon en 1884 mesure 1 mm et la femelle 1,2 mm.
+Le mâle mesure 1 mm et les femelles de 1,1 à 1,3 mm.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Erigone servula par Simon en 1882. Elle est placée dans le genre Minyriolus par Simon en 1884[3] puis dans le genre Glyphesis par Simon en 1926[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Erigone servula par Simon en 1882. Elle est placée dans le genre Minyriolus par Simon en 1884 puis dans le genre Glyphesis par Simon en 1926.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1882 : « Description d'espèces nouvelles du genre Erigone. » Bulletin de la Société Zoologique de France, vol. 6, p. 233-257 (texte intégral).</t>
         </is>
